--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/15/seed1/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.094299999999997</v>
+        <v>-6.997099999999996</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.05819999999999</v>
+        <v>-11.18069999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.22240000000001</v>
+        <v>-21.24840000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>5.058800000000005</v>
+        <v>5.002500000000005</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.96909999999999</v>
+        <v>-10.90789999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.208500000000002</v>
+        <v>4.948000000000003</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.32559999999999</v>
+        <v>-21.41110000000001</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.4378</v>
+        <v>-21.36670000000002</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.892300000000003</v>
+        <v>4.992600000000003</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.61510000000001</v>
+        <v>-11.6535</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.9321</v>
+        <v>-14.00820000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.1035</v>
+        <v>-12.0845</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.39910000000002</v>
+        <v>-21.39640000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>4.992300000000001</v>
+        <v>5.132400000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.56030000000001</v>
+        <v>-14.498</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.84930000000001</v>
+        <v>-22.79290000000001</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.109199999999998</v>
+        <v>-8.162900000000002</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.265200000000001</v>
+        <v>5.055600000000005</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.03199999999999</v>
+        <v>-11.10079999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
